--- a/Lab5/lab5.xlsx
+++ b/Lab5/lab5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruns\Documents\Stat 235\Labs\Stat-235-Labs\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F7D3BA-024B-4EED-BBA3-AB67D9B21A7F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A6930-BC60-43F3-9809-6BF393C0D3E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="21570" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 5 Data" sheetId="1" r:id="rId1"/>
     <sheet name="Lab Instructions Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="101716"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>thrust</t>
   </si>
@@ -49,12 +49,96 @@
   <si>
     <t>Peak Power Load</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted thrust</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -70,6 +154,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -79,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,11 +177,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -100,6 +210,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -116,6 +234,4177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Rate vs. Thrust</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab 5 Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>30250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29920</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29710</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28890</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28910</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30180</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FB3-45F9-AAD4-2387315FEC53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="682303983"/>
+        <c:axId val="683733103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="682303983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683733103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="683733103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="2900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682303983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Extemp vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Thrust</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab 5 Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FB3-45F9-AAD4-2387315FEC53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="682303983"/>
+        <c:axId val="683733103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="682303983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Extemp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683733103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="683733103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="2900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682303983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Ambtemp vs. Thrust</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab 5 Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FB3-45F9-AAD4-2387315FEC53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="682303983"/>
+        <c:axId val="683733103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="682303983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Ambtemp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683733103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="683733103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="2900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682303983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>rate  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>30250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29920</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29710</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28890</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28910</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30180</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$O$36:$O$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-11.670773088473652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6129174563429842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.843120895126049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.250040666654968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-54.770936410088325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>449.22246158229609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486.57033665434938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>437.78449396132419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436.54442863267468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>399.75344611187757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.024559289970057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.905698589351232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-37.835956468672521</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-44.963907757482957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-109.66396219802118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.810610865832132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.880352986514481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106.21753063736105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.67793751492718</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.603473332150315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-161.34985045226858</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-141.11964701348552</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-178.10339199884038</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-189.91042065144939</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-209.77093641008832</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-50.189389134167868</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-37.012672801418375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-91.049904892806808</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-115.85693354541581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-130.50350087992047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-131.29636334623501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-112.01267280141838</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-108.99641778677324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-176.91042065144939</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-130.45001377388689</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-69.24287624020144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-70.066159907451947</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-65.942930680739664</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-86.69647222731146</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-124.50350087992047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C79-4343-9FE1-D0C81A11B051}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="760594831"/>
+        <c:axId val="450137423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="760594831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450137423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="450137423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="760594831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D97BD0-1488-4356-9770-CDAC05065E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AE251A-48F3-458C-AD6A-41913EA663F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38AF471-312B-476E-BC0D-B11BA16CD7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A186B47-8DE9-4A73-96D7-EB792B22FAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,11 +4703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N19" sqref="M14:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -433,10 +4722,7 @@
     <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -446,11 +4732,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>4540</v>
-      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <v>30250</v>
       </c>
@@ -460,11 +4746,11 @@
       <c r="D2" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>4315</v>
-      </c>
+      <c r="E2" s="2">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>30010</v>
       </c>
@@ -474,11 +4760,11 @@
       <c r="D3" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>4095</v>
-      </c>
+      <c r="E3" s="2">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>29780</v>
       </c>
@@ -488,11 +4774,11 @@
       <c r="D4" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3650</v>
-      </c>
+      <c r="E4" s="2">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>29330</v>
       </c>
@@ -502,11 +4788,24 @@
       <c r="D5" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3200</v>
-      </c>
+      <c r="E5" s="2">
+        <v>3650</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>28960</v>
       </c>
@@ -516,11 +4815,20 @@
       <c r="D6" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4833</v>
-      </c>
+      <c r="E6" s="2">
+        <v>3200</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>30083</v>
       </c>
@@ -530,11 +4838,22 @@
       <c r="D7" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4617</v>
-      </c>
+      <c r="E7" s="2">
+        <v>4833</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.97575031728411765</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>29831</v>
       </c>
@@ -544,11 +4863,24 @@
       <c r="D8" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>4340</v>
-      </c>
+      <c r="E8" s="2">
+        <v>4617</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.21646593858808888</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.30176412456923851</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>29604</v>
       </c>
@@ -558,11 +4890,26 @@
       <c r="D9" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>3820</v>
-      </c>
+      <c r="E9" s="2">
+        <v>4340</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.92879249888389004</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.87169250967117429</v>
+      </c>
+      <c r="P9" s="6">
+        <v>-0.14744066699543931</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>29088</v>
       </c>
@@ -572,11 +4919,11 @@
       <c r="D10" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>3368</v>
-      </c>
+      <c r="E10" s="2">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>28675</v>
       </c>
@@ -586,11 +4933,11 @@
       <c r="D11" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>4445</v>
-      </c>
+      <c r="E11" s="2">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>30120</v>
       </c>
@@ -600,11 +4947,14 @@
       <c r="D12" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>4188</v>
-      </c>
+      <c r="E12" s="2">
+        <v>4445</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>29920</v>
       </c>
@@ -614,11 +4964,11 @@
       <c r="D13" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>3981</v>
-      </c>
+      <c r="E13" s="2">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>29720</v>
       </c>
@@ -628,11 +4978,15 @@
       <c r="D14" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>3622</v>
-      </c>
+      <c r="E14" s="2">
+        <v>3981</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>29370</v>
       </c>
@@ -642,11 +4996,17 @@
       <c r="D15" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>3125</v>
-      </c>
+      <c r="E15" s="2">
+        <v>3622</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.92879249888389037</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>28940</v>
       </c>
@@ -656,11 +5016,17 @@
       <c r="D16" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>4560</v>
-      </c>
+      <c r="E16" s="2">
+        <v>3125</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.86265550598298146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>30160</v>
       </c>
@@ -670,11 +5036,17 @@
       <c r="D17" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>4340</v>
-      </c>
+      <c r="E17" s="2">
+        <v>4560</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.85904117719305995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>29960</v>
       </c>
@@ -684,11 +5056,17 @@
       <c r="D18" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>4115</v>
-      </c>
+      <c r="E18" s="2">
+        <v>4340</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="5">
+        <v>189.46673496246561</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>29710</v>
       </c>
@@ -698,11 +5076,17 @@
       <c r="D19" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>3630</v>
-      </c>
+      <c r="E19" s="2">
+        <v>4115</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>29250</v>
       </c>
@@ -712,11 +5096,11 @@
       <c r="D20" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>3210</v>
-      </c>
+      <c r="E20" s="2">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>28890</v>
       </c>
@@ -726,11 +5110,14 @@
       <c r="D21" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>4330</v>
-      </c>
+      <c r="E21" s="2">
+        <v>3210</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>30190</v>
       </c>
@@ -740,11 +5127,27 @@
       <c r="D22" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>4119</v>
-      </c>
+      <c r="E22" s="2">
+        <v>4330</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>29960</v>
       </c>
@@ -754,11 +5157,29 @@
       <c r="D23" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>3891</v>
-      </c>
+      <c r="E23" s="2">
+        <v>4119</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <v>8567925.5410211869</v>
+      </c>
+      <c r="P23" s="5">
+        <v>8567925.5410211869</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>238.67654442187799</v>
+      </c>
+      <c r="R23" s="5">
+        <v>5.7276152613692168E-18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>29770</v>
       </c>
@@ -768,11 +5189,25 @@
       <c r="D24" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>3467</v>
-      </c>
+      <c r="E24" s="2">
+        <v>3891</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="5">
+        <v>38</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1364110.4589788131</v>
+      </c>
+      <c r="P24" s="5">
+        <v>35897.64365733719</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>29360</v>
       </c>
@@ -782,11 +5217,23 @@
       <c r="D25" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>3045</v>
-      </c>
+      <c r="E25" s="2">
+        <v>3467</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="6">
+        <v>39</v>
+      </c>
+      <c r="O25" s="6">
+        <v>9932036</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>28960</v>
       </c>
@@ -796,11 +5243,11 @@
       <c r="D26" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>4411</v>
-      </c>
+      <c r="E26" s="2">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>30160</v>
       </c>
@@ -810,11 +5257,36 @@
       <c r="D27" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>4203</v>
-      </c>
+      <c r="E27" s="2">
+        <v>4411</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>29940</v>
       </c>
@@ -824,11 +5296,38 @@
       <c r="D28" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>3968</v>
-      </c>
+      <c r="E28" s="2">
+        <v>4203</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="5">
+        <v>-25860.127722664318</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1926.8184019616626</v>
+      </c>
+      <c r="P28" s="5">
+        <v>-13.421154633117755</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>5.3565895905370593E-16</v>
+      </c>
+      <c r="R28" s="5">
+        <v>-29760.767650513695</v>
+      </c>
+      <c r="S28" s="5">
+        <v>-21959.487794814941</v>
+      </c>
+      <c r="T28" s="5">
+        <v>-29760.767650513695</v>
+      </c>
+      <c r="U28" s="5">
+        <v>-21959.487794814941</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>29760</v>
       </c>
@@ -838,11 +5337,38 @@
       <c r="D29" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>3531</v>
-      </c>
+      <c r="E29" s="2">
+        <v>3968</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1.005348710603398</v>
+      </c>
+      <c r="O29" s="6">
+        <v>6.5074652032922328E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <v>15.449159990817558</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>5.7276152613692168E-18</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0.87361196480934789</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1.1370854563974482</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0.87361196480934789</v>
+      </c>
+      <c r="U29" s="6">
+        <v>1.1370854563974482</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>29350</v>
       </c>
@@ -852,11 +5378,11 @@
       <c r="D30" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>3074</v>
-      </c>
+      <c r="E30" s="2">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>28910</v>
       </c>
@@ -866,11 +5392,11 @@
       <c r="D31" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>4350</v>
-      </c>
+      <c r="E31" s="2">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>30180</v>
       </c>
@@ -880,11 +5406,11 @@
       <c r="D32" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>4128</v>
-      </c>
+      <c r="E32" s="2">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>29940</v>
       </c>
@@ -894,11 +5420,14 @@
       <c r="D33" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>3940</v>
-      </c>
+      <c r="E33" s="2">
+        <v>4128</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>29750</v>
       </c>
@@ -908,11 +5437,11 @@
       <c r="D34" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>3480</v>
-      </c>
+      <c r="E34" s="2">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>29360</v>
       </c>
@@ -922,11 +5451,20 @@
       <c r="D35" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>3064</v>
-      </c>
+      <c r="E35" s="2">
+        <v>3480</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>28900</v>
       </c>
@@ -936,11 +5474,20 @@
       <c r="D36" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>4402</v>
-      </c>
+      <c r="E36" s="2">
+        <v>3064</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1</v>
+      </c>
+      <c r="N36" s="5">
+        <v>4551.6707730884737</v>
+      </c>
+      <c r="O36" s="5">
+        <v>-11.670773088473652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>30170</v>
       </c>
@@ -950,11 +5497,20 @@
       <c r="D37" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>4180</v>
-      </c>
+      <c r="E37" s="2">
+        <v>4402</v>
+      </c>
+      <c r="M37" s="5">
+        <v>2</v>
+      </c>
+      <c r="N37" s="5">
+        <v>4310.387082543657</v>
+      </c>
+      <c r="O37" s="5">
+        <v>4.6129174563429842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>29950</v>
       </c>
@@ -964,11 +5520,20 @@
       <c r="D38" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>3973</v>
-      </c>
+      <c r="E38" s="2">
+        <v>4180</v>
+      </c>
+      <c r="M38" s="5">
+        <v>3</v>
+      </c>
+      <c r="N38" s="5">
+        <v>4079.156879104874</v>
+      </c>
+      <c r="O38" s="5">
+        <v>15.843120895126049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>29740</v>
       </c>
@@ -978,11 +5543,20 @@
       <c r="D39" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>3530</v>
-      </c>
+      <c r="E39" s="2">
+        <v>3973</v>
+      </c>
+      <c r="M39" s="5">
+        <v>4</v>
+      </c>
+      <c r="N39" s="5">
+        <v>3626.749959333345</v>
+      </c>
+      <c r="O39" s="5">
+        <v>23.250040666654968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>29320</v>
       </c>
@@ -992,11 +5566,20 @@
       <c r="D40" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>3080</v>
-      </c>
+      <c r="E40" s="2">
+        <v>3530</v>
+      </c>
+      <c r="M40" s="5">
+        <v>5</v>
+      </c>
+      <c r="N40" s="5">
+        <v>3254.7709364100883</v>
+      </c>
+      <c r="O40" s="5">
+        <v>-54.770936410088325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>28910</v>
       </c>
@@ -1006,20 +5589,405 @@
       <c r="D41" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="2">
+        <v>3080</v>
+      </c>
+      <c r="M41" s="5">
+        <v>6</v>
+      </c>
+      <c r="N41" s="5">
+        <v>4383.7775384177039</v>
+      </c>
+      <c r="O41" s="5">
+        <v>449.22246158229609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
+      <c r="M42" s="5">
+        <v>7</v>
+      </c>
+      <c r="N42" s="5">
+        <v>4130.4296633456506</v>
+      </c>
+      <c r="O42" s="5">
+        <v>486.57033665434938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M43" s="5">
+        <v>8</v>
+      </c>
+      <c r="N43" s="5">
+        <v>3902.2155060386758</v>
+      </c>
+      <c r="O43" s="5">
+        <v>437.78449396132419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M44" s="5">
+        <v>9</v>
+      </c>
+      <c r="N44" s="5">
+        <v>3383.4555713673253</v>
+      </c>
+      <c r="O44" s="5">
+        <v>436.54442863267468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M45" s="5">
+        <v>10</v>
+      </c>
+      <c r="N45" s="5">
+        <v>2968.2465538881224</v>
+      </c>
+      <c r="O45" s="5">
+        <v>399.75344611187757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M46" s="5">
+        <v>11</v>
+      </c>
+      <c r="N46" s="5">
+        <v>4420.9754407100299</v>
+      </c>
+      <c r="O46" s="5">
+        <v>24.024559289970057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M47" s="5">
+        <v>12</v>
+      </c>
+      <c r="N47" s="5">
+        <v>4219.9056985893512</v>
+      </c>
+      <c r="O47" s="5">
+        <v>-31.905698589351232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M48" s="5">
+        <v>13</v>
+      </c>
+      <c r="N48" s="5">
+        <v>4018.8359564686725</v>
+      </c>
+      <c r="O48" s="5">
+        <v>-37.835956468672521</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M49" s="5">
+        <v>14</v>
+      </c>
+      <c r="N49" s="5">
+        <v>3666.963907757483</v>
+      </c>
+      <c r="O49" s="5">
+        <v>-44.963907757482957</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M50" s="5">
+        <v>15</v>
+      </c>
+      <c r="N50" s="5">
+        <v>3234.6639621980212</v>
+      </c>
+      <c r="O50" s="5">
+        <v>-109.66396219802118</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M51" s="5">
+        <v>16</v>
+      </c>
+      <c r="N51" s="5">
+        <v>4461.1893891341679</v>
+      </c>
+      <c r="O51" s="5">
+        <v>98.810610865832132</v>
+      </c>
+    </row>
+    <row r="52" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M52" s="5">
+        <v>17</v>
+      </c>
+      <c r="N52" s="5">
+        <v>4260.1196470134855</v>
+      </c>
+      <c r="O52" s="5">
+        <v>79.880352986514481</v>
+      </c>
+    </row>
+    <row r="53" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M53" s="5">
+        <v>18</v>
+      </c>
+      <c r="N53" s="5">
+        <v>4008.7824693626389</v>
+      </c>
+      <c r="O53" s="5">
+        <v>106.21753063736105</v>
+      </c>
+    </row>
+    <row r="54" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M54" s="5">
+        <v>19</v>
+      </c>
+      <c r="N54" s="5">
+        <v>3546.3220624850728</v>
+      </c>
+      <c r="O54" s="5">
+        <v>83.67793751492718</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M55" s="5">
+        <v>20</v>
+      </c>
+      <c r="N55" s="5">
+        <v>3184.3965266678497</v>
+      </c>
+      <c r="O55" s="5">
+        <v>25.603473332150315</v>
+      </c>
+    </row>
+    <row r="56" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M56" s="5">
+        <v>21</v>
+      </c>
+      <c r="N56" s="5">
+        <v>4491.3498504522686</v>
+      </c>
+      <c r="O56" s="5">
+        <v>-161.34985045226858</v>
+      </c>
+    </row>
+    <row r="57" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M57" s="5">
+        <v>22</v>
+      </c>
+      <c r="N57" s="5">
+        <v>4260.1196470134855</v>
+      </c>
+      <c r="O57" s="5">
+        <v>-141.11964701348552</v>
+      </c>
+    </row>
+    <row r="58" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M58" s="5">
+        <v>23</v>
+      </c>
+      <c r="N58" s="5">
+        <v>4069.1033919988404</v>
+      </c>
+      <c r="O58" s="5">
+        <v>-178.10339199884038</v>
+      </c>
+    </row>
+    <row r="59" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M59" s="5">
+        <v>24</v>
+      </c>
+      <c r="N59" s="5">
+        <v>3656.9104206514494</v>
+      </c>
+      <c r="O59" s="5">
+        <v>-189.91042065144939</v>
+      </c>
+    </row>
+    <row r="60" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M60" s="5">
+        <v>25</v>
+      </c>
+      <c r="N60" s="5">
+        <v>3254.7709364100883</v>
+      </c>
+      <c r="O60" s="5">
+        <v>-209.77093641008832</v>
+      </c>
+    </row>
+    <row r="61" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M61" s="5">
+        <v>26</v>
+      </c>
+      <c r="N61" s="5">
+        <v>4461.1893891341679</v>
+      </c>
+      <c r="O61" s="5">
+        <v>-50.189389134167868</v>
+      </c>
+    </row>
+    <row r="62" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M62" s="5">
+        <v>27</v>
+      </c>
+      <c r="N62" s="5">
+        <v>4240.0126728014184</v>
+      </c>
+      <c r="O62" s="5">
+        <v>-37.012672801418375</v>
+      </c>
+    </row>
+    <row r="63" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M63" s="5">
+        <v>28</v>
+      </c>
+      <c r="N63" s="5">
+        <v>4059.0499048928068</v>
+      </c>
+      <c r="O63" s="5">
+        <v>-91.049904892806808</v>
+      </c>
+    </row>
+    <row r="64" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M64" s="5">
+        <v>29</v>
+      </c>
+      <c r="N64" s="5">
+        <v>3646.8569335454158</v>
+      </c>
+      <c r="O64" s="5">
+        <v>-115.85693354541581</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M65" s="5">
+        <v>30</v>
+      </c>
+      <c r="N65" s="5">
+        <v>3204.5035008799205</v>
+      </c>
+      <c r="O65" s="5">
+        <v>-130.50350087992047</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M66" s="5">
+        <v>31</v>
+      </c>
+      <c r="N66" s="5">
+        <v>4481.296363346235</v>
+      </c>
+      <c r="O66" s="5">
+        <v>-131.29636334623501</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M67" s="5">
+        <v>32</v>
+      </c>
+      <c r="N67" s="5">
+        <v>4240.0126728014184</v>
+      </c>
+      <c r="O67" s="5">
+        <v>-112.01267280141838</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M68" s="5">
+        <v>33</v>
+      </c>
+      <c r="N68" s="5">
+        <v>4048.9964177867732</v>
+      </c>
+      <c r="O68" s="5">
+        <v>-108.99641778677324</v>
+      </c>
+    </row>
+    <row r="69" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M69" s="5">
+        <v>34</v>
+      </c>
+      <c r="N69" s="5">
+        <v>3656.9104206514494</v>
+      </c>
+      <c r="O69" s="5">
+        <v>-176.91042065144939</v>
+      </c>
+    </row>
+    <row r="70" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M70" s="5">
+        <v>35</v>
+      </c>
+      <c r="N70" s="5">
+        <v>3194.4500137738869</v>
+      </c>
+      <c r="O70" s="5">
+        <v>-130.45001377388689</v>
+      </c>
+    </row>
+    <row r="71" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M71" s="5">
+        <v>36</v>
+      </c>
+      <c r="N71" s="5">
+        <v>4471.2428762402014</v>
+      </c>
+      <c r="O71" s="5">
+        <v>-69.24287624020144</v>
+      </c>
+    </row>
+    <row r="72" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M72" s="5">
+        <v>37</v>
+      </c>
+      <c r="N72" s="5">
+        <v>4250.0661599074519</v>
+      </c>
+      <c r="O72" s="5">
+        <v>-70.066159907451947</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M73" s="5">
+        <v>38</v>
+      </c>
+      <c r="N73" s="5">
+        <v>4038.9429306807397</v>
+      </c>
+      <c r="O73" s="5">
+        <v>-65.942930680739664</v>
+      </c>
+    </row>
+    <row r="74" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M74" s="5">
+        <v>39</v>
+      </c>
+      <c r="N74" s="5">
+        <v>3616.6964722273115</v>
+      </c>
+      <c r="O74" s="5">
+        <v>-86.69647222731146</v>
+      </c>
+    </row>
+    <row r="75" spans="13:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="6">
+        <v>40</v>
+      </c>
+      <c r="N75" s="6">
+        <v>3204.5035008799205</v>
+      </c>
+      <c r="O75" s="6">
+        <v>-124.50350087992047</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1135,7 +6103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Lab5/lab5.xlsx
+++ b/Lab5/lab5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruns\Documents\Stat 235\Labs\Stat-235-Labs\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A6930-BC60-43F3-9809-6BF393C0D3E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9852D81-D870-4680-8F12-2753607A00A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="21570" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="21570" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 5 Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>thrust</t>
   </si>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t>Residuals</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>PROBABILITY OUTPUT</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) one-tail</t>
+  </si>
+  <si>
+    <t>F Critical one-tail</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lab 5 Data'!$O$36:$O$75</c:f>
+              <c:f>'Lab 5 Data'!$O$38:$O$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2489,7 +2513,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4C79-4343-9FE1-D0C81A11B051}"/>
+              <c16:uniqueId val="{00000001-1A82-4CEC-94C4-F10CAB28D8DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2501,11 +2525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="760594831"/>
-        <c:axId val="450137423"/>
+        <c:axId val="684339776"/>
+        <c:axId val="681992048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="760594831"/>
+        <c:axId val="684339776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,12 +2557,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450137423"/>
+        <c:crossAx val="681992048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="450137423"/>
+        <c:axId val="681992048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +2590,2623 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="760594831"/>
+        <c:crossAx val="684339776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>rate Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>thrust</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>30250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29920</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29710</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28890</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28910</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30180</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12C8-4B14-8BAB-4F88A5A2D969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted thrust</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>30250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29920</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29710</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28890</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29960</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28910</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30180</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29940</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29360</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$N$38:$N$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4551.6707730884737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4310.387082543657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4079.156879104874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3626.749959333345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3254.7709364100883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4383.7775384177039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4130.4296633456506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3902.2155060386758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3383.4555713673253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2968.2465538881224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4420.9754407100299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4219.9056985893512</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4018.8359564686725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3666.963907757483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3234.6639621980212</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4461.1893891341679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4260.1196470134855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4008.7824693626389</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3546.3220624850728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3184.3965266678497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4491.3498504522686</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4260.1196470134855</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4069.1033919988404</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3656.9104206514494</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3254.7709364100883</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4461.1893891341679</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4240.0126728014184</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4059.0499048928068</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3646.8569335454158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3204.5035008799205</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4481.296363346235</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4240.0126728014184</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4048.9964177867732</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3656.9104206514494</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3194.4500137738869</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4471.2428762402014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4250.0661599074519</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4038.9429306807397</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3616.6964722273115</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3204.5035008799205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12C8-4B14-8BAB-4F88A5A2D969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684336576"/>
+        <c:axId val="681992464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684336576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="681992464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="681992464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="684336576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71237888232720914"/>
+          <c:y val="0.71891796762398918"/>
+          <c:w val="0.28762111767279092"/>
+          <c:h val="0.27713277219657889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Normal Probability Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$R$38:$R$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$S$38:$S$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4315</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4445</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8A0-44E8-8F35-D91C38A42296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684354976"/>
+        <c:axId val="681988720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684354976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Sample Percentile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="681988720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="681988720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="684354976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>extemp  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$AL$28:$AL$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>124.56697183874712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.03958089797015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.51218995719501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.14781795120507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.08892413337162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>564.42040064909452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>603.81766814534967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>511.9806870801367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>426.15604182377137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>293.40262619409259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-21.512481660503909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-93.349462725718695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-115.18644379093348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-142.16999604579905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-268.84395817622863</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>323.34505908612664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>262.96835127128725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>274.21082370532349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210.61631507414677</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.093036069654772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-187.59193515975676</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-175.11932610053191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-217.95630716574487</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-258.86040592136123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-329.6891631140079</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-93.822071784943546</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-97.504257787937604</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-109.03164872871275</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-175.70561085914233</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-249.60970961475687</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-46.278233099033969</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-32.035760664997724</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-60.412468479837116</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-150.08643061026487</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-202.14532442810014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-179.44125203381918</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-216.27823309903397</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-174.26589729018451</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-144.7809524221102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-294.6891631140079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC9A-4700-95D5-FBD4F057F28E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375488368"/>
+        <c:axId val="596439824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375488368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>extemp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="596439824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="596439824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375488368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>extemp Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>thrust</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4DF-4BBF-9A51-981FDA383C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted thrust</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$AK$28:$AK$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4415.4330281612529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4191.9604191020298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3968.487810042805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3559.8521820487949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3195.9110758666284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4268.5795993509055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4013.1823318546503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3828.0193129198633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3393.8439581762286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3074.5973738059074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4466.5124816605039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4281.3494627257187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096.1864437909335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3764.1699960457991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3393.8439581762286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4236.6549409138734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4077.0316487287128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3840.7891762946765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3419.3836849258532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3112.9069639303452</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4517.5919351597568</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4294.1193261005319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4108.9563071657449</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3725.8604059213612</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3374.6891631140079</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4504.8220717849435</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4300.5042577879376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4077.0316487287128</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3706.7056108591423</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3323.6097096147569</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4396.278233099034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4160.0357606649977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4000.4124684798371</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3630.0864306102649</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3266.1453244281001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4581.4412520338192</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4396.278233099034</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4147.2658972901845</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3674.7809524221102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3374.6891631140079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F4DF-4BBF-9A51-981FDA383C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375476768"/>
+        <c:axId val="686814016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375476768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>extemp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="686814016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="686814016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375476768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Normal Probability Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$AO$28:$AO$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab 5 Data'!$AP$28:$AP$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4315</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4445</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-781B-4732-B2F8-153204731D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375484368"/>
+        <c:axId val="686811936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375484368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Sample Percentile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="686811936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="686811936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375484368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4370,23 +7010,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A186B47-8DE9-4A73-96D7-EB792B22FAEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE351331-783A-49C9-B8B6-970AB50D6196}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4399,6 +7039,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE1D3F1-7523-496E-B39E-8908CA92F6A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E38E17E-87D4-4B98-B333-457800DD759D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05952C8-CA94-4408-A31A-D5DB98FE5398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EAE300-FE0B-4283-98A2-2BA9B7ABE516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BBFF52-0EBF-40A7-AACA-D7746012E0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4704,10 +7524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:AR77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N19" sqref="M14:N19"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4720,9 +7540,10 @@
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="20" max="20" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4736,7 +7557,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>-11.670773088473652</v>
+      </c>
       <c r="B2" s="2">
         <v>30250</v>
       </c>
@@ -4750,7 +7574,10 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>4.6129174563429842</v>
+      </c>
       <c r="B3" s="2">
         <v>30010</v>
       </c>
@@ -4763,8 +7590,14 @@
       <c r="E3" s="2">
         <v>4315</v>
       </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>15.843120895126049</v>
+      </c>
       <c r="B4" s="2">
         <v>29780</v>
       </c>
@@ -4777,8 +7610,14 @@
       <c r="E4" s="2">
         <v>4095</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>23.250040666654968</v>
+      </c>
       <c r="B5" s="2">
         <v>29330</v>
       </c>
@@ -4804,8 +7643,18 @@
       <c r="Q5" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>-54.770936410088325</v>
+      </c>
       <c r="B6" s="2">
         <v>28960</v>
       </c>
@@ -4827,8 +7676,24 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
+      <c r="T6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="5">
+        <v>29605.775000000001</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3904</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>449.22246158229609</v>
+      </c>
       <c r="B7" s="2">
         <v>30083</v>
       </c>
@@ -4852,8 +7717,26 @@
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
+      <c r="T7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="5">
+        <v>217358.9993589744</v>
+      </c>
+      <c r="V7" s="5">
+        <v>254667.58974358975</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0.87169250967117384</v>
+      </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>486.57033665434938</v>
+      </c>
       <c r="B8" s="2">
         <v>29831</v>
       </c>
@@ -4879,8 +7762,26 @@
         <v>1</v>
       </c>
       <c r="Q8" s="5"/>
+      <c r="T8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="5">
+        <v>40</v>
+      </c>
+      <c r="V8" s="5">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0.75984783141682943</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>437.78449396132419</v>
+      </c>
       <c r="B9" s="2">
         <v>29604</v>
       </c>
@@ -4908,8 +7809,26 @@
       <c r="Q9" s="6">
         <v>1</v>
       </c>
+      <c r="T9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="5">
+        <v>39</v>
+      </c>
+      <c r="V9" s="5">
+        <v>39</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>0.75352803750674602</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>436.54442863267468</v>
+      </c>
       <c r="B10" s="2">
         <v>29088</v>
       </c>
@@ -4922,8 +7841,27 @@
       <c r="E10" s="2">
         <v>3820</v>
       </c>
+      <c r="T10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0.85350083054471426</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AJ10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>250.53626609241513</v>
+      </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>399.75344611187757</v>
+      </c>
       <c r="B11" s="2">
         <v>28675</v>
       </c>
@@ -4936,8 +7874,27 @@
       <c r="E11" s="2">
         <v>3368</v>
       </c>
+      <c r="T11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.31163681499404372</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AJ11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>24.024559289970057</v>
+      </c>
       <c r="B12" s="2">
         <v>30120</v>
       </c>
@@ -4950,11 +7907,21 @@
       <c r="E12" s="2">
         <v>4445</v>
       </c>
-      <c r="M12" t="s">
-        <v>6</v>
-      </c>
+      <c r="T12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.58669433554477302</v>
+      </c>
+      <c r="V12" s="6"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
     </row>
-    <row r="13" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>-31.905698589351232</v>
+      </c>
       <c r="B13" s="2">
         <v>29920</v>
       </c>
@@ -4967,8 +7934,17 @@
       <c r="E13" s="2">
         <v>4188</v>
       </c>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AJ13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>-37.835956468672521</v>
+      </c>
       <c r="B14" s="2">
         <v>29720</v>
       </c>
@@ -4981,12 +7957,37 @@
       <c r="E14" s="2">
         <v>3981</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="8"/>
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <f>_xlfn.F.INV.RT(U12,1,37)</f>
+        <v>0.30076984517041794</v>
+      </c>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>-44.963907757482957</v>
+      </c>
       <c r="B15" s="2">
         <v>29370</v>
       </c>
@@ -4999,14 +8000,32 @@
       <c r="E15" s="2">
         <v>3622</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.92879249888389037</v>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AJ15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>7546836.0161538813</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>7546836.0161538813</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>120.23300794737432</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>2.4814303472171265E-13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>-109.66396219802118</v>
+      </c>
       <c r="B16" s="2">
         <v>28940</v>
       </c>
@@ -5019,14 +8038,32 @@
       <c r="E16" s="2">
         <v>3125</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.86265550598298146</v>
-      </c>
+      <c r="M16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AJ16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>38</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>2385199.9838461187</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>62768.420627529442</v>
+      </c>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>98.810610865832132</v>
+      </c>
       <c r="B17" s="2">
         <v>30160</v>
       </c>
@@ -5040,13 +8077,31 @@
         <v>4560</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N17" s="5">
-        <v>0.85904117719305995</v>
-      </c>
+        <v>0.92879249888389037</v>
+      </c>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AJ17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>39</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>9932036</v>
+      </c>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>79.880352986514481</v>
+      </c>
       <c r="B18" s="2">
         <v>29960</v>
       </c>
@@ -5060,13 +8115,16 @@
         <v>4340</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N18" s="5">
-        <v>189.46673496246561</v>
+        <v>0.86265550598298146</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>106.21753063736105</v>
+      </c>
       <c r="B19" s="2">
         <v>29710</v>
       </c>
@@ -5079,14 +8137,42 @@
       <c r="E19" s="2">
         <v>4115</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="6">
-        <v>40</v>
+      <c r="M19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.85904117719305995</v>
+      </c>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR19" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>83.67793751492718</v>
+      </c>
       <c r="B20" s="2">
         <v>29250</v>
       </c>
@@ -5099,8 +8185,44 @@
       <c r="E20" s="2">
         <v>3630</v>
       </c>
+      <c r="M20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="5">
+        <v>189.46673496246561</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>-6643.2686544266471</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>962.71141449541756</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>-6.9005815807310844</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>3.3531153632525649E-8</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>-8592.176023462609</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>-4694.3612853906861</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>-8592.176023462609</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>-4694.3612853906861</v>
+      </c>
     </row>
-    <row r="21" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>25.603473332150315</v>
+      </c>
       <c r="B21" s="2">
         <v>28890</v>
       </c>
@@ -5113,11 +8235,44 @@
       <c r="E21" s="2">
         <v>3210</v>
       </c>
-      <c r="M21" t="s">
-        <v>13</v>
+      <c r="M21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="6">
+        <v>40</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>6.384931687406409</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>0.58229679396567602</v>
+      </c>
+      <c r="AM21" s="6">
+        <v>10.965081301448441</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>2.4814303472171447E-13</v>
+      </c>
+      <c r="AO21" s="6">
+        <v>5.2061334560376435</v>
+      </c>
+      <c r="AP21" s="6">
+        <v>7.5637299187751745</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>5.2061334560376435</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>7.5637299187751745</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>-161.34985045226858</v>
+      </c>
       <c r="B22" s="2">
         <v>30190</v>
       </c>
@@ -5130,24 +8285,11 @@
       <c r="E22" s="2">
         <v>4330</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>-141.11964701348552</v>
+      </c>
       <c r="B23" s="2">
         <v>29960</v>
       </c>
@@ -5160,26 +8302,14 @@
       <c r="E23" s="2">
         <v>4119</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1</v>
-      </c>
-      <c r="O23" s="5">
-        <v>8567925.5410211869</v>
-      </c>
-      <c r="P23" s="5">
-        <v>8567925.5410211869</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>238.67654442187799</v>
-      </c>
-      <c r="R23" s="5">
-        <v>5.7276152613692168E-18</v>
+      <c r="M23" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>-178.10339199884038</v>
+      </c>
       <c r="B24" s="2">
         <v>29770</v>
       </c>
@@ -5192,22 +8322,27 @@
       <c r="E24" s="2">
         <v>3891</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="5">
-        <v>38</v>
-      </c>
-      <c r="O24" s="5">
-        <v>1364110.4589788131</v>
-      </c>
-      <c r="P24" s="5">
-        <v>35897.64365733719</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="25" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>-189.91042065144939</v>
+      </c>
       <c r="B25" s="2">
         <v>29360</v>
       </c>
@@ -5220,20 +8355,35 @@
       <c r="E25" s="2">
         <v>3467</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="6">
-        <v>39</v>
-      </c>
-      <c r="O25" s="6">
-        <v>9932036</v>
-      </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="M25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>8567925.5410211869</v>
+      </c>
+      <c r="P25" s="5">
+        <v>8567925.5410211869</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>238.67654442187799</v>
+      </c>
+      <c r="R25" s="5">
+        <v>5.7276152613692168E-18</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>-209.77093641008832</v>
+      </c>
       <c r="B26" s="2">
         <v>28960</v>
       </c>
@@ -5246,8 +8396,25 @@
       <c r="E26" s="2">
         <v>3045</v>
       </c>
+      <c r="M26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="5">
+        <v>38</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1364110.4589788131</v>
+      </c>
+      <c r="P26" s="5">
+        <v>35897.64365733719</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>-50.189389134167868</v>
+      </c>
       <c r="B27" s="2">
         <v>30160</v>
       </c>
@@ -5260,33 +8427,41 @@
       <c r="E27" s="2">
         <v>4411</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>29</v>
+      <c r="M27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="6">
+        <v>39</v>
+      </c>
+      <c r="O27" s="6">
+        <v>9932036</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="AJ27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP27" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>-37.012672801418375</v>
+      </c>
       <c r="B28" s="2">
         <v>29940</v>
       </c>
@@ -5299,35 +8474,29 @@
       <c r="E28" s="2">
         <v>4203</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="5">
-        <v>-25860.127722664318</v>
-      </c>
-      <c r="O28" s="5">
-        <v>1926.8184019616626</v>
-      </c>
-      <c r="P28" s="5">
-        <v>-13.421154633117755</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>5.3565895905370593E-16</v>
-      </c>
-      <c r="R28" s="5">
-        <v>-29760.767650513695</v>
-      </c>
-      <c r="S28" s="5">
-        <v>-21959.487794814941</v>
-      </c>
-      <c r="T28" s="5">
-        <v>-29760.767650513695</v>
-      </c>
-      <c r="U28" s="5">
-        <v>-21959.487794814941</v>
+      <c r="AJ28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>4415.4330281612529</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>124.56697183874712</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>0.5037009984633054</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>3045</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>-91.049904892806808</v>
+      </c>
       <c r="B29" s="2">
         <v>29760</v>
       </c>
@@ -5340,35 +8509,54 @@
       <c r="E29" s="2">
         <v>3968</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N29" s="6">
-        <v>1.005348710603398</v>
-      </c>
-      <c r="O29" s="6">
-        <v>6.5074652032922328E-2</v>
-      </c>
-      <c r="P29" s="6">
-        <v>15.449159990817558</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>5.7276152613692168E-18</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0.87361196480934789</v>
-      </c>
-      <c r="S29" s="6">
-        <v>1.1370854563974482</v>
-      </c>
-      <c r="T29" s="6">
-        <v>0.87361196480934789</v>
-      </c>
-      <c r="U29" s="6">
-        <v>1.1370854563974482</v>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>4191.9604191020298</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>123.03958089797015</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>0.49752481604065574</v>
+      </c>
+      <c r="AO29" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>3064</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>-115.85693354541581</v>
+      </c>
       <c r="B30" s="2">
         <v>29350</v>
       </c>
@@ -5381,8 +8569,56 @@
       <c r="E30" s="2">
         <v>3531</v>
       </c>
+      <c r="M30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="5">
+        <v>-25860.127722664318</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1926.8184019616626</v>
+      </c>
+      <c r="P30" s="5">
+        <v>-13.421154633117755</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>5.3565895905370593E-16</v>
+      </c>
+      <c r="R30" s="5">
+        <v>-29760.767650513695</v>
+      </c>
+      <c r="S30" s="5">
+        <v>-21959.487794814941</v>
+      </c>
+      <c r="T30" s="5">
+        <v>-29760.767650513695</v>
+      </c>
+      <c r="U30" s="5">
+        <v>-21959.487794814941</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>3968.487810042805</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>126.51218995719501</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>0.51156671354032823</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>3074</v>
+      </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>-130.50350087992047</v>
+      </c>
       <c r="B31" s="2">
         <v>28910</v>
       </c>
@@ -5395,8 +8631,56 @@
       <c r="E31" s="2">
         <v>3074</v>
       </c>
+      <c r="M31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1.005348710603398</v>
+      </c>
+      <c r="O31" s="6">
+        <v>6.5074652032922328E-2</v>
+      </c>
+      <c r="P31" s="6">
+        <v>15.449159990817558</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>5.7276152613692168E-18</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0.87361196480934789</v>
+      </c>
+      <c r="S31" s="6">
+        <v>1.1370854563974482</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0.87361196480934789</v>
+      </c>
+      <c r="U31" s="6">
+        <v>1.1370854563974482</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>3559.8521820487949</v>
+      </c>
+      <c r="AL31" s="5">
+        <v>90.14781795120507</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>0.36452315763194987</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>8.75</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>3080</v>
+      </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>-131.29636334623501</v>
+      </c>
       <c r="B32" s="2">
         <v>30180</v>
       </c>
@@ -5409,8 +8693,29 @@
       <c r="E32" s="2">
         <v>4350</v>
       </c>
+      <c r="AJ32" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>3195.9110758666284</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>4.08892413337162</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>1.6534038984957842E-2</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>3125</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>-112.01267280141838</v>
+      </c>
       <c r="B33" s="2">
         <v>29940</v>
       </c>
@@ -5423,11 +8728,29 @@
       <c r="E33" s="2">
         <v>4128</v>
       </c>
-      <c r="M33" t="s">
-        <v>30</v>
+      <c r="AJ33" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>4268.5795993509055</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>564.42040064909452</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>2.2822993540216672</v>
+      </c>
+      <c r="AO33" s="5">
+        <v>13.75</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>-108.99641778677324</v>
+      </c>
       <c r="B34" s="2">
         <v>29750</v>
       </c>
@@ -5440,8 +8763,29 @@
       <c r="E34" s="2">
         <v>3940</v>
       </c>
+      <c r="AJ34" s="5">
+        <v>7</v>
+      </c>
+      <c r="AK34" s="5">
+        <v>4013.1823318546503</v>
+      </c>
+      <c r="AL34" s="5">
+        <v>603.81766814534967</v>
+      </c>
+      <c r="AM34" s="5">
+        <v>2.4416067746136876</v>
+      </c>
+      <c r="AO34" s="5">
+        <v>16.25</v>
+      </c>
+      <c r="AP34" s="5">
+        <v>3210</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>-176.91042065144939</v>
+      </c>
       <c r="B35" s="2">
         <v>29360</v>
       </c>
@@ -5454,17 +8798,35 @@
       <c r="E35" s="2">
         <v>3480</v>
       </c>
-      <c r="M35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>33</v>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>8</v>
+      </c>
+      <c r="AK35" s="5">
+        <v>3828.0193129198633</v>
+      </c>
+      <c r="AL35" s="5">
+        <v>511.9806870801367</v>
+      </c>
+      <c r="AM35" s="5">
+        <v>2.0702532900135702</v>
+      </c>
+      <c r="AO35" s="5">
+        <v>18.75</v>
+      </c>
+      <c r="AP35" s="5">
+        <v>3368</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>-130.45001377388689</v>
+      </c>
       <c r="B36" s="2">
         <v>28900</v>
       </c>
@@ -5477,17 +8839,29 @@
       <c r="E36" s="2">
         <v>3064</v>
       </c>
-      <c r="M36" s="5">
-        <v>1</v>
-      </c>
-      <c r="N36" s="5">
-        <v>4551.6707730884737</v>
-      </c>
-      <c r="O36" s="5">
-        <v>-11.670773088473652</v>
+      <c r="AJ36" s="5">
+        <v>9</v>
+      </c>
+      <c r="AK36" s="5">
+        <v>3393.8439581762286</v>
+      </c>
+      <c r="AL36" s="5">
+        <v>426.15604182377137</v>
+      </c>
+      <c r="AM36" s="5">
+        <v>1.723211382594068</v>
+      </c>
+      <c r="AO36" s="5">
+        <v>21.25</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>3467</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>-69.24287624020144</v>
+      </c>
       <c r="B37" s="2">
         <v>30170</v>
       </c>
@@ -5500,17 +8874,47 @@
       <c r="E37" s="2">
         <v>4402</v>
       </c>
-      <c r="M37" s="5">
-        <v>2</v>
-      </c>
-      <c r="N37" s="5">
-        <v>4310.387082543657</v>
-      </c>
-      <c r="O37" s="5">
-        <v>4.6129174563429842</v>
+      <c r="M37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK37" s="5">
+        <v>3074.5973738059074</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>293.40262619409259</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>1.1864075491618438</v>
+      </c>
+      <c r="AO37" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>3480</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>-70.066159907451947</v>
+      </c>
       <c r="B38" s="2">
         <v>29950</v>
       </c>
@@ -5524,16 +8928,46 @@
         <v>4180</v>
       </c>
       <c r="M38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38" s="5">
-        <v>4079.156879104874</v>
+        <v>4551.6707730884737</v>
       </c>
       <c r="O38" s="5">
-        <v>15.843120895126049</v>
+        <v>-11.670773088473652</v>
+      </c>
+      <c r="P38" s="5">
+        <v>-6.2403242930736895E-2</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="S38" s="5">
+        <v>3045</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>11</v>
+      </c>
+      <c r="AK38" s="5">
+        <v>4466.5124816605039</v>
+      </c>
+      <c r="AL38" s="5">
+        <v>-21.512481660503909</v>
+      </c>
+      <c r="AM38" s="5">
+        <v>-8.6988214707879902E-2</v>
+      </c>
+      <c r="AO38" s="5">
+        <v>26.25</v>
+      </c>
+      <c r="AP38" s="5">
+        <v>3530</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>-65.942930680739664</v>
+      </c>
       <c r="B39" s="2">
         <v>29740</v>
       </c>
@@ -5547,16 +8981,46 @@
         <v>3973</v>
       </c>
       <c r="M39" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" s="5">
-        <v>3626.749959333345</v>
+        <v>4310.387082543657</v>
       </c>
       <c r="O39" s="5">
-        <v>23.250040666654968</v>
+        <v>4.6129174563429842</v>
+      </c>
+      <c r="P39" s="5">
+        <v>2.4665119136958191E-2</v>
+      </c>
+      <c r="R39" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="S39" s="5">
+        <v>3064</v>
+      </c>
+      <c r="AJ39" s="5">
+        <v>12</v>
+      </c>
+      <c r="AK39" s="5">
+        <v>4281.3494627257187</v>
+      </c>
+      <c r="AL39" s="5">
+        <v>-93.349462725718695</v>
+      </c>
+      <c r="AM39" s="5">
+        <v>-0.37746937961874549</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>3531</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>-86.69647222731146</v>
+      </c>
       <c r="B40" s="2">
         <v>29320</v>
       </c>
@@ -5570,16 +9034,46 @@
         <v>3530</v>
       </c>
       <c r="M40" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" s="5">
-        <v>3254.7709364100883</v>
+        <v>4079.156879104874</v>
       </c>
       <c r="O40" s="5">
-        <v>-54.770936410088325</v>
+        <v>15.843120895126049</v>
+      </c>
+      <c r="P40" s="5">
+        <v>8.4712650524926408E-2</v>
+      </c>
+      <c r="R40" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="S40" s="5">
+        <v>3074</v>
+      </c>
+      <c r="AJ40" s="5">
+        <v>13</v>
+      </c>
+      <c r="AK40" s="5">
+        <v>4096.1864437909335</v>
+      </c>
+      <c r="AL40" s="5">
+        <v>-115.18644379093348</v>
+      </c>
+      <c r="AM40" s="5">
+        <v>-0.46576974530646298</v>
+      </c>
+      <c r="AO40" s="5">
+        <v>31.25</v>
+      </c>
+      <c r="AP40" s="5">
+        <v>3622</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>-124.50350087992047</v>
+      </c>
       <c r="B41" s="2">
         <v>28910</v>
       </c>
@@ -5593,391 +9087,1235 @@
         <v>3080</v>
       </c>
       <c r="M41" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N41" s="5">
-        <v>4383.7775384177039</v>
+        <v>3626.749959333345</v>
       </c>
       <c r="O41" s="5">
-        <v>449.22246158229609</v>
+        <v>23.250040666654968</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.12431720888342053</v>
+      </c>
+      <c r="R41" s="5">
+        <v>8.75</v>
+      </c>
+      <c r="S41" s="5">
+        <v>3080</v>
+      </c>
+      <c r="AJ41" s="5">
+        <v>14</v>
+      </c>
+      <c r="AK41" s="5">
+        <v>3764.1699960457991</v>
+      </c>
+      <c r="AL41" s="5">
+        <v>-142.16999604579905</v>
+      </c>
+      <c r="AM41" s="5">
+        <v>-0.57488086852182896</v>
+      </c>
+      <c r="AO41" s="5">
+        <v>33.75</v>
+      </c>
+      <c r="AP41" s="5">
+        <v>3630</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="M42" s="5">
+        <v>5</v>
+      </c>
+      <c r="N42" s="5">
+        <v>3254.7709364100883</v>
+      </c>
+      <c r="O42" s="5">
+        <v>-54.770936410088325</v>
+      </c>
+      <c r="P42" s="5">
+        <v>-0.29285841001555174</v>
+      </c>
+      <c r="R42" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="S42" s="5">
+        <v>3125</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>15</v>
+      </c>
+      <c r="AK42" s="5">
+        <v>3393.8439581762286</v>
+      </c>
+      <c r="AL42" s="5">
+        <v>-268.84395817622863</v>
+      </c>
+      <c r="AM42" s="5">
+        <v>-1.0871017266076899</v>
+      </c>
+      <c r="AO42" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="AP42" s="5">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="M43" s="5">
+        <v>6</v>
+      </c>
+      <c r="N43" s="5">
+        <v>4383.7775384177039</v>
+      </c>
+      <c r="O43" s="5">
+        <v>449.22246158229609</v>
+      </c>
+      <c r="P43" s="5">
+        <v>2.4019778456450052</v>
+      </c>
+      <c r="R43" s="5">
+        <v>13.75</v>
+      </c>
+      <c r="S43" s="5">
+        <v>3200</v>
+      </c>
+      <c r="AJ43" s="5">
+        <v>16</v>
+      </c>
+      <c r="AK43" s="5">
+        <v>4236.6549409138734</v>
+      </c>
+      <c r="AL43" s="5">
+        <v>323.34505908612664</v>
+      </c>
+      <c r="AM43" s="5">
+        <v>1.3074832494177822</v>
+      </c>
+      <c r="AO43" s="5">
+        <v>38.75</v>
+      </c>
+      <c r="AP43" s="5">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="M44" s="5">
         <v>7</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N44" s="5">
         <v>4130.4296633456506</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O44" s="5">
         <v>486.57033665434938</v>
       </c>
+      <c r="P44" s="5">
+        <v>2.6016757151348968</v>
+      </c>
+      <c r="R44" s="5">
+        <v>16.25</v>
+      </c>
+      <c r="S44" s="5">
+        <v>3210</v>
+      </c>
+      <c r="AJ44" s="5">
+        <v>17</v>
+      </c>
+      <c r="AK44" s="5">
+        <v>4077.0316487287128</v>
+      </c>
+      <c r="AL44" s="5">
+        <v>262.96835127128725</v>
+      </c>
+      <c r="AM44" s="5">
+        <v>1.063343028608448</v>
+      </c>
+      <c r="AO44" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="AP44" s="5">
+        <v>3891</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M43" s="5">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="M45" s="5">
         <v>8</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N45" s="5">
         <v>3902.2155060386758</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O45" s="5">
         <v>437.78449396132419</v>
       </c>
+      <c r="P45" s="5">
+        <v>2.3408194059534351</v>
+      </c>
+      <c r="R45" s="5">
+        <v>18.75</v>
+      </c>
+      <c r="S45" s="5">
+        <v>3368</v>
+      </c>
+      <c r="AJ45" s="5">
+        <v>18</v>
+      </c>
+      <c r="AK45" s="5">
+        <v>3840.7891762946765</v>
+      </c>
+      <c r="AL45" s="5">
+        <v>274.21082370532349</v>
+      </c>
+      <c r="AM45" s="5">
+        <v>1.1088032698476011</v>
+      </c>
+      <c r="AO45" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="AP45" s="5">
+        <v>3940</v>
+      </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M44" s="5">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="M46" s="5">
         <v>9</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N46" s="5">
         <v>3383.4555713673253</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O46" s="5">
         <v>436.54442863267468</v>
       </c>
+      <c r="P46" s="5">
+        <v>2.3341888170998035</v>
+      </c>
+      <c r="R46" s="5">
+        <v>21.25</v>
+      </c>
+      <c r="S46" s="5">
+        <v>3467</v>
+      </c>
+      <c r="AJ46" s="5">
+        <v>19</v>
+      </c>
+      <c r="AK46" s="5">
+        <v>3419.3836849258532</v>
+      </c>
+      <c r="AL46" s="5">
+        <v>210.61631507414677</v>
+      </c>
+      <c r="AM46" s="5">
+        <v>0.85165149822250719</v>
+      </c>
+      <c r="AO46" s="5">
+        <v>46.25</v>
+      </c>
+      <c r="AP46" s="5">
+        <v>3968</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M45" s="5">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="M47" s="5">
         <v>10</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N47" s="5">
         <v>2968.2465538881224</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O47" s="5">
         <v>399.75344611187757</v>
       </c>
+      <c r="P47" s="5">
+        <v>2.1374686339121736</v>
+      </c>
+      <c r="R47" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="S47" s="5">
+        <v>3480</v>
+      </c>
+      <c r="AJ47" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK47" s="5">
+        <v>3112.9069639303452</v>
+      </c>
+      <c r="AL47" s="5">
+        <v>97.093036069654772</v>
+      </c>
+      <c r="AM47" s="5">
+        <v>0.39260695263129486</v>
+      </c>
+      <c r="AO47" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="AP47" s="5">
+        <v>3973</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M46" s="5">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="M48" s="5">
         <v>11</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N48" s="5">
         <v>4420.9754407100299</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O48" s="5">
         <v>24.024559289970057</v>
       </c>
+      <c r="P48" s="5">
+        <v>0.12845853469266325</v>
+      </c>
+      <c r="R48" s="5">
+        <v>26.25</v>
+      </c>
+      <c r="S48" s="5">
+        <v>3530</v>
+      </c>
+      <c r="AJ48" s="5">
+        <v>21</v>
+      </c>
+      <c r="AK48" s="5">
+        <v>4517.5919351597568</v>
+      </c>
+      <c r="AL48" s="5">
+        <v>-187.59193515975676</v>
+      </c>
+      <c r="AM48" s="5">
+        <v>-0.75854974756833171</v>
+      </c>
+      <c r="AO48" s="5">
+        <v>51.25</v>
+      </c>
+      <c r="AP48" s="5">
+        <v>3981</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M47" s="5">
+    <row r="49" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M49" s="5">
         <v>12</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N49" s="5">
         <v>4219.9056985893512</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O49" s="5">
         <v>-31.905698589351232</v>
       </c>
+      <c r="P49" s="5">
+        <v>-0.17059872939458781</v>
+      </c>
+      <c r="R49" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="S49" s="5">
+        <v>3531</v>
+      </c>
+      <c r="AJ49" s="5">
+        <v>22</v>
+      </c>
+      <c r="AK49" s="5">
+        <v>4294.1193261005319</v>
+      </c>
+      <c r="AL49" s="5">
+        <v>-175.11932610053191</v>
+      </c>
+      <c r="AM49" s="5">
+        <v>-0.70811530620849261</v>
+      </c>
+      <c r="AO49" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="AP49" s="5">
+        <v>4095</v>
+      </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M48" s="5">
+    <row r="50" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M50" s="5">
         <v>13</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N50" s="5">
         <v>4018.8359564686725</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O50" s="5">
         <v>-37.835956468672521</v>
       </c>
+      <c r="P50" s="5">
+        <v>-0.20230762479335884</v>
+      </c>
+      <c r="R50" s="5">
+        <v>31.25</v>
+      </c>
+      <c r="S50" s="5">
+        <v>3622</v>
+      </c>
+      <c r="AJ50" s="5">
+        <v>23</v>
+      </c>
+      <c r="AK50" s="5">
+        <v>4108.9563071657449</v>
+      </c>
+      <c r="AL50" s="5">
+        <v>-217.95630716574487</v>
+      </c>
+      <c r="AM50" s="5">
+        <v>-0.88133160756992501</v>
+      </c>
+      <c r="AO50" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="AP50" s="5">
+        <v>4115</v>
+      </c>
     </row>
-    <row r="49" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M49" s="5">
+    <row r="51" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M51" s="5">
         <v>14</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N51" s="5">
         <v>3666.963907757483</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O51" s="5">
         <v>-44.963907757482957</v>
       </c>
+      <c r="P51" s="5">
+        <v>-0.24042054777644722</v>
+      </c>
+      <c r="R51" s="5">
+        <v>33.75</v>
+      </c>
+      <c r="S51" s="5">
+        <v>3630</v>
+      </c>
+      <c r="AJ51" s="5">
+        <v>24</v>
+      </c>
+      <c r="AK51" s="5">
+        <v>3725.8604059213612</v>
+      </c>
+      <c r="AL51" s="5">
+        <v>-258.86040592136123</v>
+      </c>
+      <c r="AM51" s="5">
+        <v>-1.0467320751281868</v>
+      </c>
+      <c r="AO51" s="5">
+        <v>58.75</v>
+      </c>
+      <c r="AP51" s="5">
+        <v>4119</v>
+      </c>
     </row>
-    <row r="50" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M50" s="5">
+    <row r="52" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M52" s="5">
         <v>15</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N52" s="5">
         <v>3234.6639621980212</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O52" s="5">
         <v>-109.66396219802118</v>
       </c>
+      <c r="P52" s="5">
+        <v>-0.58636962795112202</v>
+      </c>
+      <c r="R52" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="S52" s="5">
+        <v>3650</v>
+      </c>
+      <c r="AJ52" s="5">
+        <v>25</v>
+      </c>
+      <c r="AK52" s="5">
+        <v>3374.6891631140079</v>
+      </c>
+      <c r="AL52" s="5">
+        <v>-329.6891631140079</v>
+      </c>
+      <c r="AM52" s="5">
+        <v>-1.3331363698720187</v>
+      </c>
+      <c r="AO52" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="AP52" s="5">
+        <v>4128</v>
+      </c>
     </row>
-    <row r="51" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M51" s="5">
+    <row r="53" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M53" s="5">
         <v>16</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N53" s="5">
         <v>4461.1893891341679</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O53" s="5">
         <v>98.810610865832132</v>
       </c>
+      <c r="P53" s="5">
+        <v>0.52833711248184834</v>
+      </c>
+      <c r="R53" s="5">
+        <v>38.75</v>
+      </c>
+      <c r="S53" s="5">
+        <v>3820</v>
+      </c>
+      <c r="AJ53" s="5">
+        <v>26</v>
+      </c>
+      <c r="AK53" s="5">
+        <v>4504.8220717849435</v>
+      </c>
+      <c r="AL53" s="5">
+        <v>-93.822071784943546</v>
+      </c>
+      <c r="AM53" s="5">
+        <v>-0.37938042916502906</v>
+      </c>
+      <c r="AO53" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="AP53" s="5">
+        <v>4180</v>
+      </c>
     </row>
-    <row r="52" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M52" s="5">
+    <row r="54" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M54" s="5">
         <v>17</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N54" s="5">
         <v>4260.1196470134855</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O54" s="5">
         <v>79.880352986514481</v>
       </c>
+      <c r="P54" s="5">
+        <v>0.42711764122409202</v>
+      </c>
+      <c r="R54" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="S54" s="5">
+        <v>3891</v>
+      </c>
+      <c r="AJ54" s="5">
+        <v>27</v>
+      </c>
+      <c r="AK54" s="5">
+        <v>4300.5042577879376</v>
+      </c>
+      <c r="AL54" s="5">
+        <v>-97.504257787937604</v>
+      </c>
+      <c r="AM54" s="5">
+        <v>-0.39426977534450164</v>
+      </c>
+      <c r="AO54" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="AP54" s="5">
+        <v>4188</v>
+      </c>
     </row>
-    <row r="53" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M53" s="5">
+    <row r="55" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M55" s="5">
         <v>18</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N55" s="5">
         <v>4008.7824693626389</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O55" s="5">
         <v>106.21753063736105</v>
       </c>
+      <c r="P55" s="5">
+        <v>0.56794167084034253</v>
+      </c>
+      <c r="R55" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="S55" s="5">
+        <v>3940</v>
+      </c>
+      <c r="AJ55" s="5">
+        <v>28</v>
+      </c>
+      <c r="AK55" s="5">
+        <v>4077.0316487287128</v>
+      </c>
+      <c r="AL55" s="5">
+        <v>-109.03164872871275</v>
+      </c>
+      <c r="AM55" s="5">
+        <v>-0.44088211761177354</v>
+      </c>
+      <c r="AO55" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="AP55" s="5">
+        <v>4203</v>
+      </c>
     </row>
-    <row r="54" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M54" s="5">
+    <row r="56" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M56" s="5">
         <v>19</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N56" s="5">
         <v>3546.3220624850728</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O56" s="5">
         <v>83.67793751492718</v>
       </c>
+      <c r="P56" s="5">
+        <v>0.44742320179664691</v>
+      </c>
+      <c r="R56" s="5">
+        <v>46.25</v>
+      </c>
+      <c r="S56" s="5">
+        <v>3968</v>
+      </c>
+      <c r="AJ56" s="5">
+        <v>29</v>
+      </c>
+      <c r="AK56" s="5">
+        <v>3706.7056108591423</v>
+      </c>
+      <c r="AL56" s="5">
+        <v>-175.70561085914233</v>
+      </c>
+      <c r="AM56" s="5">
+        <v>-0.71048601662985666</v>
+      </c>
+      <c r="AO56" s="5">
+        <v>71.25</v>
+      </c>
+      <c r="AP56" s="5">
+        <v>4315</v>
+      </c>
     </row>
-    <row r="55" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M55" s="5">
+    <row r="57" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M57" s="5">
         <v>20</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N57" s="5">
         <v>3184.3965266678497</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O57" s="5">
         <v>25.603473332150315</v>
       </c>
+      <c r="P57" s="5">
+        <v>0.13690093656218777</v>
+      </c>
+      <c r="R57" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="S57" s="5">
+        <v>3973</v>
+      </c>
+      <c r="AJ57" s="5">
+        <v>30</v>
+      </c>
+      <c r="AK57" s="5">
+        <v>3323.6097096147569</v>
+      </c>
+      <c r="AL57" s="5">
+        <v>-249.60970961475687</v>
+      </c>
+      <c r="AM57" s="5">
+        <v>-1.0093258116753889</v>
+      </c>
+      <c r="AO57" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="AP57" s="5">
+        <v>4330</v>
+      </c>
     </row>
-    <row r="56" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M56" s="5">
+    <row r="58" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M58" s="5">
         <v>21</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N58" s="5">
         <v>4491.3498504522686</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O58" s="5">
         <v>-161.34985045226858</v>
       </c>
+      <c r="P58" s="5">
+        <v>-0.86273238613088432</v>
+      </c>
+      <c r="R58" s="5">
+        <v>51.25</v>
+      </c>
+      <c r="S58" s="5">
+        <v>3981</v>
+      </c>
+      <c r="AJ58" s="5">
+        <v>31</v>
+      </c>
+      <c r="AK58" s="5">
+        <v>4396.278233099034</v>
+      </c>
+      <c r="AL58" s="5">
+        <v>-46.278233099033969</v>
+      </c>
+      <c r="AM58" s="5">
+        <v>-0.18713140309195664</v>
+      </c>
+      <c r="AO58" s="5">
+        <v>76.25</v>
+      </c>
+      <c r="AP58" s="5">
+        <v>4340</v>
+      </c>
     </row>
-    <row r="57" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M57" s="5">
+    <row r="59" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M59" s="5">
         <v>22</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N59" s="5">
         <v>4260.1196470134855</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O59" s="5">
         <v>-141.11964701348552</v>
       </c>
+      <c r="P59" s="5">
+        <v>-0.75456214837898972</v>
+      </c>
+      <c r="R59" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="S59" s="5">
+        <v>4095</v>
+      </c>
+      <c r="AJ59" s="5">
+        <v>32</v>
+      </c>
+      <c r="AK59" s="5">
+        <v>4160.0357606649977</v>
+      </c>
+      <c r="AL59" s="5">
+        <v>-32.035760664997724</v>
+      </c>
+      <c r="AM59" s="5">
+        <v>-0.12954031389941456</v>
+      </c>
+      <c r="AO59" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="AP59" s="5">
+        <v>4340</v>
+      </c>
     </row>
-    <row r="58" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M58" s="5">
+    <row r="60" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M60" s="5">
         <v>23</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N60" s="5">
         <v>4069.1033919988404</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O60" s="5">
         <v>-178.10339199884038</v>
       </c>
+      <c r="P60" s="5">
+        <v>-0.95231302617549718</v>
+      </c>
+      <c r="R60" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="S60" s="5">
+        <v>4115</v>
+      </c>
+      <c r="AJ60" s="5">
+        <v>33</v>
+      </c>
+      <c r="AK60" s="5">
+        <v>4000.4124684798371</v>
+      </c>
+      <c r="AL60" s="5">
+        <v>-60.412468479837116</v>
+      </c>
+      <c r="AM60" s="5">
+        <v>-0.24428482320593417</v>
+      </c>
+      <c r="AO60" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="AP60" s="5">
+        <v>4350</v>
+      </c>
     </row>
-    <row r="59" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M59" s="5">
+    <row r="61" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M61" s="5">
         <v>24</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N61" s="5">
         <v>3656.9104206514494</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O61" s="5">
         <v>-189.91042065144939</v>
       </c>
+      <c r="P61" s="5">
+        <v>-1.0154448231621604</v>
+      </c>
+      <c r="R61" s="5">
+        <v>58.75</v>
+      </c>
+      <c r="S61" s="5">
+        <v>4119</v>
+      </c>
+      <c r="AJ61" s="5">
+        <v>34</v>
+      </c>
+      <c r="AK61" s="5">
+        <v>3630.0864306102649</v>
+      </c>
+      <c r="AL61" s="5">
+        <v>-150.08643061026487</v>
+      </c>
+      <c r="AM61" s="5">
+        <v>-0.6068918898666581</v>
+      </c>
+      <c r="AO61" s="5">
+        <v>83.75</v>
+      </c>
+      <c r="AP61" s="5">
+        <v>4402</v>
+      </c>
     </row>
-    <row r="60" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M60" s="5">
+    <row r="62" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M62" s="5">
         <v>25</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N62" s="5">
         <v>3254.7709364100883</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O62" s="5">
         <v>-209.77093641008832</v>
       </c>
+      <c r="P62" s="5">
+        <v>-1.1216383529498399</v>
+      </c>
+      <c r="R62" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="S62" s="5">
+        <v>4128</v>
+      </c>
+      <c r="AJ62" s="5">
+        <v>35</v>
+      </c>
+      <c r="AK62" s="5">
+        <v>3266.1453244281001</v>
+      </c>
+      <c r="AL62" s="5">
+        <v>-202.14532442810014</v>
+      </c>
+      <c r="AM62" s="5">
+        <v>-0.81739806504191681</v>
+      </c>
+      <c r="AO62" s="5">
+        <v>86.25</v>
+      </c>
+      <c r="AP62" s="5">
+        <v>4411</v>
+      </c>
     </row>
-    <row r="61" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M61" s="5">
+    <row r="63" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M63" s="5">
         <v>26</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N63" s="5">
         <v>4461.1893891341679</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O63" s="5">
         <v>-50.189389134167868</v>
       </c>
+      <c r="P63" s="5">
+        <v>-0.26836102620982211</v>
+      </c>
+      <c r="R63" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="S63" s="5">
+        <v>4180</v>
+      </c>
+      <c r="AJ63" s="5">
+        <v>36</v>
+      </c>
+      <c r="AK63" s="5">
+        <v>4581.4412520338192</v>
+      </c>
+      <c r="AL63" s="5">
+        <v>-179.44125203381918</v>
+      </c>
+      <c r="AM63" s="5">
+        <v>-0.72559151499599805</v>
+      </c>
+      <c r="AO63" s="5">
+        <v>88.75</v>
+      </c>
+      <c r="AP63" s="5">
+        <v>4445</v>
+      </c>
     </row>
-    <row r="62" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M62" s="5">
+    <row r="64" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M64" s="5">
         <v>27</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N64" s="5">
         <v>4240.0126728014184</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O64" s="5">
         <v>-37.012672801418375</v>
       </c>
+      <c r="P64" s="5">
+        <v>-0.19790555388519354</v>
+      </c>
+      <c r="R64" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="S64" s="5">
+        <v>4188</v>
+      </c>
+      <c r="AJ64" s="5">
+        <v>37</v>
+      </c>
+      <c r="AK64" s="5">
+        <v>4396.278233099034</v>
+      </c>
+      <c r="AL64" s="5">
+        <v>-216.27823309903397</v>
+      </c>
+      <c r="AM64" s="5">
+        <v>-0.87454612045065994</v>
+      </c>
+      <c r="AO64" s="5">
+        <v>91.25</v>
+      </c>
+      <c r="AP64" s="5">
+        <v>4540</v>
+      </c>
     </row>
-    <row r="63" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M63" s="5">
+    <row r="65" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M65" s="5">
         <v>28</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N65" s="5">
         <v>4059.0499048928068</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O65" s="5">
         <v>-91.049904892806808</v>
       </c>
+      <c r="P65" s="5">
+        <v>-0.48684087084666311</v>
+      </c>
+      <c r="R65" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="S65" s="5">
+        <v>4203</v>
+      </c>
+      <c r="AJ65" s="5">
+        <v>38</v>
+      </c>
+      <c r="AK65" s="5">
+        <v>4147.2658972901845</v>
+      </c>
+      <c r="AL65" s="5">
+        <v>-174.26589729018451</v>
+      </c>
+      <c r="AM65" s="5">
+        <v>-0.7046643678293707</v>
+      </c>
+      <c r="AO65" s="5">
+        <v>93.75</v>
+      </c>
+      <c r="AP65" s="5">
+        <v>4560</v>
+      </c>
     </row>
-    <row r="64" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M64" s="5">
+    <row r="66" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M66" s="5">
         <v>29</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N66" s="5">
         <v>3646.8569335454158</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O66" s="5">
         <v>-115.85693354541581</v>
       </c>
+      <c r="P66" s="5">
+        <v>-0.6194832436923311</v>
+      </c>
+      <c r="R66" s="5">
+        <v>71.25</v>
+      </c>
+      <c r="S66" s="5">
+        <v>4315</v>
+      </c>
+      <c r="AJ66" s="5">
+        <v>39</v>
+      </c>
+      <c r="AK66" s="5">
+        <v>3674.7809524221102</v>
+      </c>
+      <c r="AL66" s="5">
+        <v>-144.7809524221102</v>
+      </c>
+      <c r="AM66" s="5">
+        <v>-0.58543857345981631</v>
+      </c>
+      <c r="AO66" s="5">
+        <v>96.25</v>
+      </c>
+      <c r="AP66" s="5">
+        <v>4617</v>
+      </c>
     </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M65" s="5">
+    <row r="67" spans="13:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="5">
         <v>30</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N67" s="5">
         <v>3204.5035008799205</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O67" s="5">
         <v>-130.50350087992047</v>
       </c>
+      <c r="P67" s="5">
+        <v>-0.69779796136764705</v>
+      </c>
+      <c r="R67" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="S67" s="5">
+        <v>4330</v>
+      </c>
+      <c r="AJ67" s="6">
+        <v>40</v>
+      </c>
+      <c r="AK67" s="6">
+        <v>3374.6891631140079</v>
+      </c>
+      <c r="AL67" s="6">
+        <v>-294.6891631140079</v>
+      </c>
+      <c r="AM67" s="6">
+        <v>-1.191609810415815</v>
+      </c>
+      <c r="AO67" s="6">
+        <v>98.75</v>
+      </c>
+      <c r="AP67" s="6">
+        <v>4833</v>
+      </c>
     </row>
-    <row r="66" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M66" s="5">
+    <row r="68" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M68" s="5">
         <v>31</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N68" s="5">
         <v>4481.296363346235</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O68" s="5">
         <v>-131.29636334623501</v>
       </c>
+      <c r="P68" s="5">
+        <v>-0.70203737110691744</v>
+      </c>
+      <c r="R68" s="5">
+        <v>76.25</v>
+      </c>
+      <c r="S68" s="5">
+        <v>4340</v>
+      </c>
     </row>
-    <row r="67" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M67" s="5">
+    <row r="69" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M69" s="5">
         <v>32</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N69" s="5">
         <v>4240.0126728014184</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O69" s="5">
         <v>-112.01267280141838</v>
       </c>
+      <c r="P69" s="5">
+        <v>-0.59892810691791354</v>
+      </c>
+      <c r="R69" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="S69" s="5">
+        <v>4340</v>
+      </c>
     </row>
-    <row r="68" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M68" s="5">
+    <row r="70" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M70" s="5">
         <v>33</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N70" s="5">
         <v>4048.9964177867732</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O70" s="5">
         <v>-108.99641778677324</v>
       </c>
+      <c r="P70" s="5">
+        <v>-0.58280028976363707</v>
+      </c>
+      <c r="R70" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="S70" s="5">
+        <v>4350</v>
+      </c>
     </row>
-    <row r="69" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M69" s="5">
+    <row r="71" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M71" s="5">
         <v>34</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N71" s="5">
         <v>3656.9104206514494</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O71" s="5">
         <v>-176.91042065144939</v>
       </c>
+      <c r="P71" s="5">
+        <v>-0.94593424730315567</v>
+      </c>
+      <c r="R71" s="5">
+        <v>83.75</v>
+      </c>
+      <c r="S71" s="5">
+        <v>4402</v>
+      </c>
     </row>
-    <row r="70" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M70" s="5">
+    <row r="72" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M72" s="5">
         <v>35</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N72" s="5">
         <v>3194.4500137738869</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O72" s="5">
         <v>-130.45001377388689</v>
       </c>
+      <c r="P72" s="5">
+        <v>-0.69751196755676825</v>
+      </c>
+      <c r="R72" s="5">
+        <v>86.25</v>
+      </c>
+      <c r="S72" s="5">
+        <v>4411</v>
+      </c>
     </row>
-    <row r="71" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M71" s="5">
+    <row r="73" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M73" s="5">
         <v>36</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N73" s="5">
         <v>4471.2428762402014</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O73" s="5">
         <v>-69.24287624020144</v>
       </c>
+      <c r="P73" s="5">
+        <v>-0.37023940012232337</v>
+      </c>
+      <c r="R73" s="5">
+        <v>88.75</v>
+      </c>
+      <c r="S73" s="5">
+        <v>4445</v>
+      </c>
     </row>
-    <row r="72" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M72" s="5">
+    <row r="74" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M74" s="5">
         <v>37</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N74" s="5">
         <v>4250.0661599074519</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O74" s="5">
         <v>-70.066159907451947</v>
       </c>
+      <c r="P74" s="5">
+        <v>-0.37464147103046924</v>
+      </c>
+      <c r="R74" s="5">
+        <v>91.25</v>
+      </c>
+      <c r="S74" s="5">
+        <v>4540</v>
+      </c>
     </row>
-    <row r="73" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M73" s="5">
+    <row r="75" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M75" s="5">
         <v>38</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N75" s="5">
         <v>4038.9429306807397</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O75" s="5">
         <v>-65.942930680739664</v>
       </c>
+      <c r="P75" s="5">
+        <v>-0.35259469888066536</v>
+      </c>
+      <c r="R75" s="5">
+        <v>93.75</v>
+      </c>
+      <c r="S75" s="5">
+        <v>4560</v>
+      </c>
     </row>
-    <row r="74" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M74" s="5">
+    <row r="76" spans="13:42" x14ac:dyDescent="0.2">
+      <c r="M76" s="5">
         <v>39</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N76" s="5">
         <v>3616.6964722273115</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O76" s="5">
         <v>-86.69647222731146</v>
       </c>
+      <c r="P76" s="5">
+        <v>-0.46356320842035664</v>
+      </c>
+      <c r="R76" s="5">
+        <v>96.25</v>
+      </c>
+      <c r="S76" s="5">
+        <v>4617</v>
+      </c>
     </row>
-    <row r="75" spans="13:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M75" s="6">
+    <row r="77" spans="13:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="6">
         <v>40</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N77" s="6">
         <v>3204.5035008799205</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O77" s="6">
         <v>-124.50350087992047</v>
+      </c>
+      <c r="P77" s="6">
+        <v>-0.66571615712502952</v>
+      </c>
+      <c r="R77" s="6">
+        <v>98.75</v>
+      </c>
+      <c r="S77" s="6">
+        <v>4833</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AP28:AP67">
+    <sortCondition ref="AP28"/>
+  </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Lab5/lab5.xlsx
+++ b/Lab5/lab5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruns\Documents\Stat 235\Labs\Stat-235-Labs\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9852D81-D870-4680-8F12-2753607A00A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F790F1-A4C3-4D78-92FA-CE7A48F2B63D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="21570" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 5 Data" sheetId="1" r:id="rId1"/>
